--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/MASSACHUSETTS_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/MASSACHUSETTS_2014.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E306"/>
+  <dimension ref="A1:E312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,200 +360,179 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>col_1</t>
+          <t>...1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t xml:space="preserve">MATRÍCULAS CONSULARES DE ALTA SEGURIDAD EXPEDIDAS EN EL ESTADO DE MASSACHUSETTS POR ESTADO Y MUNICIPIO DE LA REPÚBLICA MEXICANA, 2014_x000D_
+</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>...3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>...4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AGUASCALIENTES</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>AGUASCALIENTES</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.7692307692310003E-3</t>
+          <t>...5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES Total</t>
+          <t>Estado de Origen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Municipio de Origen</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Número de Matrículas</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.7692307692310003E-3</t>
+          <t>Porcentaje de Matrículas</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5.7692307692310003E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES Total</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.7692307692310003E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
           <t>BAJA CALIFORNIA</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>ENSENADA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MEXICALI</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TIJUANA</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
+          <t>MEXICALI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TIJUANA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.8461538461539999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>7.6923076923079998E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BAJA CALIFORNIA SUR</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LA PAZ</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BAJA CALIFORNIA SUR Total</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>BAJA CALIFORNIA SUR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HOPELCHÉN</t>
+          <t>LA PAZ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -570,7 +549,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>CAMPECHE Total</t>
+          <t>BAJA CALIFORNIA SUR Total</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -592,46 +571,56 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>HOPELCHÉN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CAMPECHE Total</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
           <t>CHIAPAS</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>ACACOYAGUA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ACAPETAHUA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.8461538461539999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -648,41 +637,41 @@
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>BEJUCAL DE OCAMPO</t>
+          <t>ACAPETAHUA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>AMATENANGO DE LA FRONTERA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHAPULTENANGO</t>
+          <t>BEJUCAL DE OCAMPO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -699,7 +688,7 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>CACAHOATÁN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -716,24 +705,24 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>CHAPULTENANGO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>CHICOMUSELO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -750,41 +739,41 @@
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>COMITÁN DE DOMÍNGUEZ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -801,24 +790,24 @@
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>FRONTERA COMALAPA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>LA INDEPENDENCIA</t>
+          <t>HUEHUETÁN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -835,7 +824,7 @@
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>LA CONCORDIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -852,143 +841,143 @@
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>LA INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
+          <t>LAS MARGARITAS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.6923076923079998E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>MAPASTEPEC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.5384615384615E-2</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>MAZAPA DE MADERO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>OSTUACÁN</t>
+          <t>MOTOZINTLA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>1.5384615384615E-2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>OXCHUC</t>
+          <t>OCOSINGO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>OSTUACÁN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>OXCHUC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>PALENQUE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1005,75 +994,75 @@
     <row r="36">
       <c r="C36" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>SILTEPEC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.1153846153845999E-2</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="inlineStr">
         <is>
-          <t>TENEJAPA</t>
+          <t>SUCHIATE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>TAPACHULA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>2.1153846153845999E-2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>TENEJAPA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.6923076923079998E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>TONALÁ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1090,124 +1079,114 @@
     <row r="41">
       <c r="C41" t="inlineStr">
         <is>
-          <t>UNIÓN JUÁREZ</t>
+          <t>TUXTLA CHICO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.7307692307692E-2</t>
+          <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>TUZANTÁN</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.140384615384615</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>CHIHUAHUA</t>
-        </is>
-      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>UNIÓN JUÁREZ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>1.7307692307692E-2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="inlineStr">
         <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.140384615384615</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
           <t>GUERRERO</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
         <is>
           <t>OJINAGA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CHIHUAHUA Total</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>5.7692307692310003E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>COAHUILA</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SALTILLO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1224,7 +1203,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>COAHUILA Total</t>
+          <t>CHIHUAHUA Total</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1234,170 +1213,180 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SALTILLO</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>COAHUILA Total</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
           <t>COLIMA</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>COMALA</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
         <is>
           <t>MANZANILLO</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
         <is>
           <t>TECOMÁN</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
         <is>
           <t>COLIMA Total</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
+    <row r="55">
+      <c r="B55" t="inlineStr">
         <is>
           <t>DISTRITO FEDERAL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>ÁLVARO OBREGÓN</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>3.8461538461539999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>AZCAPOTZALCO</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>9.6153846153849993E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>BENITO JUÁREZ</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="C56" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>AZCAPOTZALCO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.7692307692310003E-3</t>
+          <t>9.6153846153849993E-3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>BENITO JUÁREZ</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1414,204 +1403,204 @@
     <row r="58">
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>COYOACÁN</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>7.6923076923079998E-3</t>
+          <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="C59" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>CUAJIMALPA DE MORELOS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>9.6153846153849993E-3</t>
+          <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="C60" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>CUAUHTÉMOC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="C61" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>GUSTAVO A. MADERO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>9.6153846153849993E-3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="C62" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>IZTACALCO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>7.6923076923079998E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="C63" t="inlineStr">
         <is>
-          <t>MILPA ALTA</t>
+          <t>IZTAPALAPA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>7.6923076923079998E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="C64" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>MIGUEL HIDALGO</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="C65" t="inlineStr">
         <is>
+          <t>MILPA ALTA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>7.6923076923079998E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>TLALPAN</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
           <t>VENUSTIANO CARRANZA</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="B66" t="inlineStr">
+    <row r="68">
+      <c r="B68" t="inlineStr">
         <is>
           <t>DISTRITO FEDERAL Total</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>8.4615384615384995E-2</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" t="inlineStr">
+    <row r="69">
+      <c r="B69" t="inlineStr">
         <is>
           <t>DURANGO</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>CANATLÁN</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>DURANGO</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>NUEVO IDEAL</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1628,85 +1617,85 @@
     <row r="70">
       <c r="C70" t="inlineStr">
         <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NUEVO IDEAL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
           <t>TAMAZULA</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
         <is>
           <t>DURANGO Total</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
+    <row r="74">
+      <c r="B74" t="inlineStr">
         <is>
           <t>ESTADO DE MÉXICO</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>AMATEPEC</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>CHALCO</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>CUAUTITLÁN</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1723,24 +1712,24 @@
     <row r="75">
       <c r="C75" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>CHALCO</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="C76" t="inlineStr">
         <is>
-          <t>HUIXQUILUCAN</t>
+          <t>CUAUTITLÁN</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1757,24 +1746,24 @@
     <row r="77">
       <c r="C77" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>ECATEPEC DE MORELOS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="C78" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>HUIXQUILUCAN</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1791,7 +1780,7 @@
     <row r="79">
       <c r="C79" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>IXTAPALUCA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -1808,7 +1797,7 @@
     <row r="80">
       <c r="C80" t="inlineStr">
         <is>
-          <t>LERMA</t>
+          <t>IXTAPAN DE LA SAL</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -1825,41 +1814,41 @@
     <row r="81">
       <c r="C81" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>IXTLAHUACA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="C82" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>LERMA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>7.6923076923079998E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="C83" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>NAUCALPAN DE JUÁREZ</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -1876,119 +1865,119 @@
     <row r="84">
       <c r="C84" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>NEZAHUALCÓYOTL</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="C85" t="inlineStr">
         <is>
-          <t>ZINACANTEPEC</t>
+          <t>TENANCINGO</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="C86" t="inlineStr">
         <is>
+          <t>TOLUCA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ZINACANTEPEC</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
           <t>ZUMPANGO</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
         <is>
           <t>ESTADO DE MEXICO Total</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>4.0384615384614998E-2</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="B88" t="inlineStr">
+    <row r="90">
+      <c r="B90" t="inlineStr">
         <is>
           <t>GUANAJUATO</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>APASEO EL GRANDE</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>CELAYA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>1.1538461538462001E-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>COMONFORT</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2005,92 +1994,92 @@
     <row r="91">
       <c r="C91" t="inlineStr">
         <is>
-          <t>CORONEO</t>
+          <t>CELAYA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>1.1538461538462001E-2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="C92" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>COMONFORT</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>7.6923076923079998E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="C93" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>CORONEO</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="C94" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="C95" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>IRAPUATO</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.1538461538462001E-2</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="C96" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>JERÉCUARO</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2107,24 +2096,24 @@
     <row r="97">
       <c r="C97" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>LEÓN</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>1.1538461538462001E-2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="C98" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>MANUEL DOBLADO</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2141,7 +2130,7 @@
     <row r="99">
       <c r="C99" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>PURÍSIMA DEL RINCÓN</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2158,7 +2147,7 @@
     <row r="100">
       <c r="C100" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>SALAMANCA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2175,24 +2164,24 @@
     <row r="101">
       <c r="C101" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>SAN LUIS DE LA PAZ</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="C102" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>TARIMORO</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2209,119 +2198,119 @@
     <row r="103">
       <c r="C103" t="inlineStr">
         <is>
+          <t>URIANGATO</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>3.8461538461539999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>VALLE DE SANTIAGO</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="inlineStr">
+        <is>
           <t>YURIRIA</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
         <is>
           <t>GUANAJUATO Total</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>5.9615384615385E-2</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="B105" t="inlineStr">
+    <row r="107">
+      <c r="B107" t="inlineStr">
         <is>
           <t>GUERRERO</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>ACAPULCO DE JUÁREZ</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1.3461538461538001E-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>AHUACUOTZINGO</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>APAXTLA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="C108" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>AHUACUOTZINGO</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="C109" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>APAXTLA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2338,24 +2327,24 @@
     <row r="110">
       <c r="C110" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>ARCELIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="C111" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>ATOYAC DE ÁLVAREZ</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2372,7 +2361,7 @@
     <row r="112">
       <c r="C112" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>AZOYÚ</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2389,7 +2378,7 @@
     <row r="113">
       <c r="C113" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>CHILAPA DE ÁLVAREZ</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2406,7 +2395,7 @@
     <row r="114">
       <c r="C114" t="inlineStr">
         <is>
-          <t>MOCHITLÁN</t>
+          <t>CHILPANCINGO DE LOS BRAVO</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2423,7 +2412,7 @@
     <row r="115">
       <c r="C115" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>MALINALTEPEC</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2440,7 +2429,7 @@
     <row r="116">
       <c r="C116" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>MOCHITLÁN</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2457,7 +2446,7 @@
     <row r="117">
       <c r="C117" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>OLINALÁ</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2474,75 +2463,75 @@
     <row r="118">
       <c r="C118" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>PETATLÁN</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1.3461538461538001E-2</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="C119" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>PUNGARABATO</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="C120" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>SAN LUIS ACATLÁN</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>1.3461538461538001E-2</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="C121" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="C122" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>SAN MIGUEL TOTOLAPAN</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2559,119 +2548,119 @@
     <row r="123">
       <c r="C123" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>TECOANAPA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="C124" t="inlineStr">
         <is>
+          <t>TELOLOAPAN</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>TLAPA DE COMONFORT</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>3.8461538461539999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="inlineStr">
+        <is>
           <t>XALPATLÁHUAC</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="B125" t="inlineStr">
+    <row r="127">
+      <c r="B127" t="inlineStr">
         <is>
           <t>GUERRERO Total</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>7.1153846153845998E-2</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
+    <row r="128">
+      <c r="B128" t="inlineStr">
         <is>
           <t>HIDALGO</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>ALFAJAYUCAN</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>7.6923076923079998E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>CHILCUAUTLA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>FRANCISCO I. MADERO</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="C129" t="inlineStr">
         <is>
-          <t>HUAZALINGO</t>
+          <t>CHILCUAUTLA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -2688,7 +2677,7 @@
     <row r="130">
       <c r="C130" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>FRANCISCO I. MADERO</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -2705,7 +2694,7 @@
     <row r="131">
       <c r="C131" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>HUAZALINGO</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -2722,24 +2711,24 @@
     <row r="132">
       <c r="C132" t="inlineStr">
         <is>
-          <t>NOPALA DE VILLAGRÁN</t>
+          <t>IXMIQUILPAN</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="C133" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>METEPEC</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -2756,85 +2745,85 @@
     <row r="134">
       <c r="C134" t="inlineStr">
         <is>
+          <t>NOPALA DE VILLAGRÁN</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PACHUCA DE SOTO</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="inlineStr">
+        <is>
           <t>PACULA</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
         <is>
           <t>HIDALGO Total</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2.6923076923077001E-2</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="B136" t="inlineStr">
+    <row r="138">
+      <c r="B138" t="inlineStr">
         <is>
           <t>JALISCO</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>ARANDAS</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>ATENGUILLO</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>CHAPALA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -2851,7 +2840,7 @@
     <row r="139">
       <c r="C139" t="inlineStr">
         <is>
-          <t>EL SALTO</t>
+          <t>ATENGUILLO</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -2868,24 +2857,24 @@
     <row r="140">
       <c r="C140" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>CHAPALA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>3.8461538461537999E-2</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="C141" t="inlineStr">
         <is>
-          <t>JOCOTEPEC</t>
+          <t>EL SALTO</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -2902,24 +2891,24 @@
     <row r="142">
       <c r="C142" t="inlineStr">
         <is>
-          <t>JUANACATLÁN</t>
+          <t>GUADALAJARA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461537999E-2</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="C143" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>JOCOTEPEC</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -2936,7 +2925,7 @@
     <row r="144">
       <c r="C144" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>JUANACATLÁN</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -2953,7 +2942,7 @@
     <row r="145">
       <c r="C145" t="inlineStr">
         <is>
-          <t>OJUELOS DE JALISCO</t>
+          <t>LA BARCA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -2970,7 +2959,7 @@
     <row r="146">
       <c r="C146" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>LAGOS DE MORENO</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -2987,24 +2976,24 @@
     <row r="147">
       <c r="C147" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>OJUELOS DE JALISCO</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>7.6923076923079998E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="C148" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>PUERTO VALLARTA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3021,24 +3010,24 @@
     <row r="149">
       <c r="C149" t="inlineStr">
         <is>
-          <t>TLAQUEPAQUE</t>
+          <t>TIZAPÁN EL ALTO</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="C150" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>TLAJOMULCO DE ZÚÑIGA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3055,7 +3044,7 @@
     <row r="151">
       <c r="C151" t="inlineStr">
         <is>
-          <t>TOTOTLÁN</t>
+          <t>TLAQUEPAQUE</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3072,24 +3061,24 @@
     <row r="152">
       <c r="C152" t="inlineStr">
         <is>
-          <t>TUXCUECA</t>
+          <t>TOMATLÁN</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>5.7692307692310003E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="C153" t="inlineStr">
         <is>
-          <t>UNIÓN DE SAN ANTONIO</t>
+          <t>TOTOTLÁN</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3106,102 +3095,102 @@
     <row r="154">
       <c r="C154" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>TUXCUECA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="C155" t="inlineStr">
         <is>
+          <t>UNIÓN DE SAN ANTONIO</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>UNIÓN DE TULA</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>3.8461538461539999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="C157" t="inlineStr">
+        <is>
           <t>ZAPOTILTIC</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="B156" t="inlineStr">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
         <is>
           <t>JALISCO Total</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>8.6538461538461994E-2</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="B157" t="inlineStr">
+    <row r="159">
+      <c r="B159" t="inlineStr">
         <is>
           <t>MICHOACÁN</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>APATZINGÁN</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>GABRIEL ZAMORA</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>HUIRAMBA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3218,7 +3207,7 @@
     <row r="160">
       <c r="C160" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>GABRIEL ZAMORA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3235,7 +3224,7 @@
     <row r="161">
       <c r="C161" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>HUIRAMBA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3252,75 +3241,75 @@
     <row r="162">
       <c r="C162" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>MORELIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>1.7307692307692E-2</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="C163" t="inlineStr">
         <is>
-          <t>SALVADOR ESCALANTE</t>
+          <t>MÚGICA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>5.7692307692310003E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="C164" t="inlineStr">
         <is>
-          <t>SUSUPUATO</t>
+          <t>PÁTZCUARO</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>1.7307692307692E-2</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="C165" t="inlineStr">
         <is>
-          <t>TARÍMBARO</t>
+          <t>SALVADOR ESCALANTE</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="C166" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>SUSUPUATO</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3337,7 +3326,7 @@
     <row r="167">
       <c r="C167" t="inlineStr">
         <is>
-          <t>TUZANTLA</t>
+          <t>TARÍMBARO</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3354,7 +3343,7 @@
     <row r="168">
       <c r="C168" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>TUXPAN</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3371,7 +3360,7 @@
     <row r="169">
       <c r="C169" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>TUZANTLA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3388,119 +3377,119 @@
     <row r="170">
       <c r="C170" t="inlineStr">
         <is>
+          <t>VENUSTIANO CARRANZA</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>YURÉCUARO</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="C172" t="inlineStr">
+        <is>
           <t>ZACAPU</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="B171" t="inlineStr">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
         <is>
           <t>MICHOACAN Total</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>4.6153846153845997E-2</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="B172" t="inlineStr">
+    <row r="174">
+      <c r="B174" t="inlineStr">
         <is>
           <t>MORELOS</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>CUAUTLA</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>3.8461538461539999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>CUERNAVACA</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>3.8461538461539999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>JIUTEPEC</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="C175" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>CUERNAVACA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="C176" t="inlineStr">
         <is>
-          <t>MIACATLÁN</t>
+          <t>JIUTEPEC</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -3517,24 +3506,24 @@
     <row r="177">
       <c r="C177" t="inlineStr">
         <is>
-          <t>OCUITUCO</t>
+          <t>JOJUTLA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>9.6153846153849993E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="C178" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>MIACATLÁN</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -3551,85 +3540,75 @@
     <row r="179">
       <c r="C179" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>OCUITUCO</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>9.6153846153849993E-3</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="C180" t="inlineStr">
         <is>
+          <t>PUENTE DE IXTLA</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>YAUTEPEC</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>3.8461538461539999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="C182" t="inlineStr">
+        <is>
           <t>ZACATEPEC DE HIDALGO</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>MORELOS Total</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>3.0769230769231E-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>NAYARIT</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>TECUALA</t>
-        </is>
-      </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>5.7692307692310003E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>NAYARIT Total</t>
+          <t>MORELOS Total</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3639,136 +3618,146 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>5.7692307692310003E-3</t>
+          <t>3.0769230769231E-2</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>NAYARIT</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>TECUALA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
     <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>NAYARIT Total</t>
+        </is>
+      </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS GARZA</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
+          <t>NUEVO LEÓN</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>MONTERREY</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SAN NICOLÁS DE LOS GARZA</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
           <t>NUEVO LEON Total</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="B187" t="inlineStr">
+    <row r="189">
+      <c r="B189" t="inlineStr">
         <is>
           <t>OAXACA</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>AYOTZINTEPEC</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>IXTLÁN DE JUÁREZ</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>JUCHITÁN DE ZARAGOZA</t>
-        </is>
-      </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>1.3461538461538001E-2</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="C190" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>IXTLÁN DE JUÁREZ</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -3785,75 +3774,75 @@
     <row r="191">
       <c r="C191" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>JUCHITÁN DE ZARAGOZA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>9.6153846153849993E-3</t>
+          <t>1.3461538461538001E-2</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="C192" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN YATARENI</t>
+          <t>LOMA BONITA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>1.3461538461538001E-2</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="C193" t="inlineStr">
         <is>
-          <t>SAN CARLOS YAUTEPEC</t>
+          <t>OAXACA DE JUÁREZ</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>9.6153846153849993E-3</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="C194" t="inlineStr">
         <is>
-          <t>SAN DIONISIO DEL MAR</t>
+          <t>SAN AGUSTÍN YATARENI</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>5.7692307692310003E-3</t>
+          <t>1.3461538461538001E-2</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="C195" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO LOGUECHE</t>
+          <t>SAN CARLOS YAUTEPEC</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -3870,24 +3859,24 @@
     <row r="196">
       <c r="C196" t="inlineStr">
         <is>
-          <t>SAN JOSÉ TENANGO</t>
+          <t>SAN DIONISIO DEL MAR</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="C197" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>SAN FRANCISCO LOGUECHE</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -3904,7 +3893,7 @@
     <row r="198">
       <c r="C198" t="inlineStr">
         <is>
-          <t>SAN JUAN JUQUILA MIXES</t>
+          <t>SAN JOSÉ TENANGO</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -3921,7 +3910,7 @@
     <row r="199">
       <c r="C199" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO TEPOSCOLULA</t>
+          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -3938,24 +3927,24 @@
     <row r="200">
       <c r="C200" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ZENZONTEPEC</t>
+          <t>SAN JUAN JUQUILA MIXES</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="C201" t="inlineStr">
         <is>
-          <t>SANTA MARÍA CORTIJO</t>
+          <t>SAN PEDRO Y SAN PABLO TEPOSCOLULA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -3972,24 +3961,24 @@
     <row r="202">
       <c r="C202" t="inlineStr">
         <is>
-          <t>SANTIAGO CHAZUMBA</t>
+          <t>SANTA CRUZ ZENZONTEPEC</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="C203" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>SANTA MARÍA CORTIJO</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4006,7 +3995,7 @@
     <row r="204">
       <c r="C204" t="inlineStr">
         <is>
-          <t>SANTIAGO TILANTONGO</t>
+          <t>SANTIAGO CHAZUMBA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4023,7 +4012,7 @@
     <row r="205">
       <c r="C205" t="inlineStr">
         <is>
-          <t>SANTIAGO YAITEPEC</t>
+          <t>SANTIAGO JOCOTEPEC</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4040,7 +4029,7 @@
     <row r="206">
       <c r="C206" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEPUXTEPEC</t>
+          <t>SANTIAGO TILANTONGO</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4057,85 +4046,85 @@
     <row r="207">
       <c r="C207" t="inlineStr">
         <is>
+          <t>SANTIAGO YAITEPEC</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>SANTO DOMINGO TEPUXTEPEC</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="C209" t="inlineStr">
+        <is>
           <t>TRINIDAD ZAACHILA</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="B208" t="inlineStr">
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="inlineStr">
         <is>
           <t>OAXACA Total</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>7.6923076923076997E-2</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="B209" t="inlineStr">
+    <row r="211">
+      <c r="B211" t="inlineStr">
         <is>
           <t>PUEBLA</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>ACAJETE</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>ATLIXCO</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>3.0769230769231E-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>ATZITZIHUACÁN</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -4152,24 +4141,24 @@
     <row r="212">
       <c r="C212" t="inlineStr">
         <is>
-          <t>AYOTOXCO DE GUERRERO</t>
+          <t>ATLIXCO</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.0769230769231E-2</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="C213" t="inlineStr">
         <is>
-          <t>CAÑADA MORELOS</t>
+          <t>ATZITZIHUACÁN</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -4186,7 +4175,7 @@
     <row r="214">
       <c r="C214" t="inlineStr">
         <is>
-          <t>CHIAUTZINGO</t>
+          <t>AYOTOXCO DE GUERRERO</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4203,24 +4192,24 @@
     <row r="215">
       <c r="C215" t="inlineStr">
         <is>
-          <t>CORONANGO</t>
+          <t>CAÑADA MORELOS</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="C216" t="inlineStr">
         <is>
-          <t>COXCATLÁN</t>
+          <t>CHIAUTZINGO</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -4237,24 +4226,24 @@
     <row r="217">
       <c r="C217" t="inlineStr">
         <is>
-          <t>ESPERANZA</t>
+          <t>CORONANGO</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="C218" t="inlineStr">
         <is>
-          <t>HONEY</t>
+          <t>COXCATLÁN</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4271,24 +4260,24 @@
     <row r="219">
       <c r="C219" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>ESPERANZA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>5.7692307692310003E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="C220" t="inlineStr">
         <is>
-          <t>IXCAQUIXTLA</t>
+          <t>HONEY</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -4305,24 +4294,24 @@
     <row r="221">
       <c r="C221" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>HUAQUECHULA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="C222" t="inlineStr">
         <is>
-          <t>JALPAN</t>
+          <t>IXCAQUIXTLA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4339,7 +4328,7 @@
     <row r="223">
       <c r="C223" t="inlineStr">
         <is>
-          <t>NAUZONTLA</t>
+          <t>IZÚCAR DE MATAMOROS</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -4356,75 +4345,75 @@
     <row r="224">
       <c r="C224" t="inlineStr">
         <is>
-          <t>NEALTICAN</t>
+          <t>JALPAN</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="C225" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>NAUZONTLA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>2.1153846153845999E-2</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="C226" t="inlineStr">
         <is>
-          <t>SAN FELIPE TEOTLALCINGO</t>
+          <t>NEALTICAN</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="C227" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>PUEBLA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>2.1153846153845999E-2</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="C228" t="inlineStr">
         <is>
-          <t>SANTA INÉS AHUATEMPAN</t>
+          <t>SAN FELIPE TEOTLALCINGO</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -4441,7 +4430,7 @@
     <row r="229">
       <c r="C229" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>SAN MARTÍN TEXMELUCAN</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -4458,24 +4447,24 @@
     <row r="230">
       <c r="C230" t="inlineStr">
         <is>
-          <t>TEPEXCO</t>
+          <t>SANTA INÉS AHUATEMPAN</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>9.6153846153849993E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="C231" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>TEHUACÁN</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -4492,41 +4481,41 @@
     <row r="232">
       <c r="C232" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>TEPEXCO</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>9.6153846153849993E-3</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="C233" t="inlineStr">
         <is>
-          <t>TIANGUISMANALCO</t>
+          <t>TEPEXI DE RODRÍGUEZ</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>1.1538461538462001E-2</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="C234" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>TEZIUTLÁN</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -4543,85 +4532,85 @@
     <row r="235">
       <c r="C235" t="inlineStr">
         <is>
+          <t>TIANGUISMANALCO</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1.1538461538462001E-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>TLAHUAPAN</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" t="inlineStr">
+        <is>
           <t>TOCHTEPEC</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="B236" t="inlineStr">
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="inlineStr">
         <is>
           <t>PUEBLA Total</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D238" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>0.125</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="B237" t="inlineStr">
+    <row r="239">
+      <c r="B239" t="inlineStr">
         <is>
           <t>QUERÉTARO</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>AMEALCO DE BONFIL</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>EL MARQUÉS</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>HUIMILPAN</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -4638,7 +4627,7 @@
     <row r="240">
       <c r="C240" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>EL MARQUÉS</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -4655,85 +4644,85 @@
     <row r="241">
       <c r="C241" t="inlineStr">
         <is>
+          <t>HUIMILPAN</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>JALPAN DE SERRA</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="C243" t="inlineStr">
+        <is>
           <t>QUERÉTARO</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="D243" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
-    <row r="242">
-      <c r="B242" t="inlineStr">
+    <row r="244">
+      <c r="B244" t="inlineStr">
         <is>
           <t>QUERETARO Total</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>1.1538461538462001E-2</t>
         </is>
       </c>
     </row>
-    <row r="243">
-      <c r="B243" t="inlineStr">
+    <row r="245">
+      <c r="B245" t="inlineStr">
         <is>
           <t>SAN LUIS POTOSÍ</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>GUADALCÁZAR</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>LAGUNILLAS</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>RIOVERDE</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -4750,336 +4739,326 @@
     <row r="246">
       <c r="C246" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>LAGUNILLAS</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>7.6923076923079998E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="C247" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>RIOVERDE</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>9.6153846153849993E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="C248" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>SALINAS</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="C249" t="inlineStr">
         <is>
+          <t>SAN LUIS POTOSÍ</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>9.6153846153849993E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>SANTO DOMINGO</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" t="inlineStr">
+        <is>
           <t>VILLA DE REYES</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
+      <c r="D251" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="E251" t="inlineStr">
         <is>
           <t>7.6923076923079998E-3</t>
         </is>
       </c>
     </row>
-    <row r="250">
-      <c r="B250" t="inlineStr">
+    <row r="252">
+      <c r="B252" t="inlineStr">
         <is>
           <t>SAN LUIS POTOSI Total</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
+      <c r="D252" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>3.2692307692307999E-2</t>
         </is>
       </c>
     </row>
-    <row r="251">
-      <c r="B251" t="inlineStr">
+    <row r="253">
+      <c r="B253" t="inlineStr">
         <is>
           <t>SINALOA</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>GUASAVE</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="C252" t="inlineStr">
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="C254" t="inlineStr">
         <is>
           <t>MAZATLÁN</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="D254" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
+      <c r="E254" t="inlineStr">
         <is>
           <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
-    <row r="253">
-      <c r="C253" t="inlineStr">
+    <row r="255">
+      <c r="C255" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="B254" t="inlineStr">
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="inlineStr">
         <is>
           <t>SINALOA Total</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
+      <c r="D256" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>9.6153846153849993E-3</t>
         </is>
       </c>
     </row>
-    <row r="255">
-      <c r="B255" t="inlineStr">
+    <row r="257">
+      <c r="B257" t="inlineStr">
         <is>
           <t>SONORA</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>CAJEME</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
-    <row r="256">
-      <c r="C256" t="inlineStr">
+    <row r="258">
+      <c r="C258" t="inlineStr">
         <is>
           <t>HERMOSILLO</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
-    <row r="257">
-      <c r="C257" t="inlineStr">
+    <row r="259">
+      <c r="C259" t="inlineStr">
         <is>
           <t>NOGALES</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
+      <c r="D259" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
-    <row r="258">
-      <c r="B258" t="inlineStr">
+    <row r="260">
+      <c r="B260" t="inlineStr">
         <is>
           <t>SONORA Total</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
+      <c r="D260" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>1.3461538461538001E-2</t>
         </is>
       </c>
     </row>
-    <row r="259">
-      <c r="B259" t="inlineStr">
+    <row r="261">
+      <c r="B261" t="inlineStr">
         <is>
           <t>TABASCO</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>BALANCÁN</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="C260" t="inlineStr">
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" t="inlineStr">
         <is>
           <t>COMALCALCO</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="C261" t="inlineStr">
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="C263" t="inlineStr">
         <is>
           <t>TENOSIQUE</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>TABASCO Total</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>5.7692307692310003E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>TAMAULIPAS</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>MATAMOROS</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -5096,7 +5075,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>TAMAULIPAS Total</t>
+          <t>TABASCO Total</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5106,153 +5085,163 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>MATAMOROS</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS Total</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="inlineStr">
+        <is>
           <t>TLAXCALA</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>AMAXAC DE GUERRERO</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="C266" t="inlineStr">
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="C268" t="inlineStr">
         <is>
           <t>CHIAUTEMPAN</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
+      <c r="D268" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
-    <row r="267">
-      <c r="C267" t="inlineStr">
+    <row r="269">
+      <c r="C269" t="inlineStr">
         <is>
           <t>MUÑOZ DE DOMINGO ARENAS</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
+      <c r="D269" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
-    <row r="268">
-      <c r="B268" t="inlineStr">
+    <row r="270">
+      <c r="B270" t="inlineStr">
         <is>
           <t>TLAXCALA Total</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
+      <c r="D270" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>9.6153846153849993E-3</t>
         </is>
       </c>
     </row>
-    <row r="269">
-      <c r="B269" t="inlineStr">
+    <row r="271">
+      <c r="B271" t="inlineStr">
         <is>
           <t>VERACRUZ</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>ACTOPAN</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>ATZALAN</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>COATZACOALCOS</t>
-        </is>
-      </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="C272" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>ATZALAN</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -5269,24 +5258,24 @@
     <row r="273">
       <c r="C273" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>COATZACOALCOS</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="C274" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>CÓRDOBA</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -5303,7 +5292,7 @@
     <row r="275">
       <c r="C275" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>COSAMALOAPAN DE CARPIO</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -5320,24 +5309,24 @@
     <row r="276">
       <c r="C276" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>HIDALGOTITLÁN</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>5.7692307692310003E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="C277" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>HUATUSCO</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -5354,24 +5343,24 @@
     <row r="278">
       <c r="C278" t="inlineStr">
         <is>
-          <t>JAMAPA</t>
+          <t>IGNACIO DE LA LLAVE</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>5.7692307692310003E-3</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="C279" t="inlineStr">
         <is>
-          <t>JOSÉ AZUETA</t>
+          <t>ISLA</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -5388,7 +5377,7 @@
     <row r="280">
       <c r="C280" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>JAMAPA</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -5405,24 +5394,24 @@
     <row r="281">
       <c r="C281" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>JOSÉ AZUETA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="C282" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>LAS CHOAPAS</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -5439,7 +5428,7 @@
     <row r="283">
       <c r="C283" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>MARTÍNEZ DE LA TORRE</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -5456,7 +5445,7 @@
     <row r="284">
       <c r="C284" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>MINATITLÁN</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -5473,24 +5462,24 @@
     <row r="285">
       <c r="C285" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>PAPANTLA</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="C286" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>PLAYA VICENTE</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -5507,7 +5496,7 @@
     <row r="287">
       <c r="C287" t="inlineStr">
         <is>
-          <t>SAYULA DE ALEMÁN</t>
+          <t>SAN JUAN EVANGELISTA</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -5524,24 +5513,24 @@
     <row r="288">
       <c r="C288" t="inlineStr">
         <is>
-          <t>SOTEAPAN</t>
+          <t>SANTIAGO TUXTLA</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="C289" t="inlineStr">
         <is>
-          <t>TECOLUTLA</t>
+          <t>SAYULA DE ALEMÁN</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -5558,24 +5547,24 @@
     <row r="290">
       <c r="C290" t="inlineStr">
         <is>
-          <t>TEMAPACHE</t>
+          <t>SOTEAPAN</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="C291" t="inlineStr">
         <is>
-          <t>TEPETZINTLA</t>
+          <t>TECOLUTLA</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -5592,197 +5581,187 @@
     <row r="292">
       <c r="C292" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>TEMAPACHE</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="C293" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>TEPETZINTLA</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="C294" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>TIERRA BLANCA</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="C295" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>TLALIXCOYAN</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="C296" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>TLAPACOYAN</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="C297" t="inlineStr">
         <is>
+          <t>TOMATLÁN</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>VERACRUZ</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3.8461538461539999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="C299" t="inlineStr">
+        <is>
           <t>XALAPA</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="B298" t="inlineStr">
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="inlineStr">
         <is>
           <t>VERACRUZ Total</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
+      <c r="C300" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr">
+      <c r="D300" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
+      <c r="E300" t="inlineStr">
         <is>
           <t>7.3076923076922998E-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>TIZIMÍN</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>YUCATAN Total</t>
+          <t>YUCATÁN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>3.8461538461539999E-3</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>ZACATECAS</t>
-        </is>
-      </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>TIZIMÍN</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -5799,7 +5778,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>ZACATECAS Total</t>
+          <t>YUCATAN Total</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5809,41 +5788,106 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>1.9230769230769999E-3</t>
+          <t>3.8461538461539999E-3</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>SOMBRERETE</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Secretaría de Relaciones Exteriores</t>
+          <t>ZACATECAS Total</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>1.9230769230769999E-3</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="B306" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Tamaño de la muestra: 956,675</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Elaborado por: Sistematización de Información y Estadística del Instituto de los Mexicanos en el Exterior</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Secretaría de Relaciones Exteriores</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="inlineStr">
         <is>
           <t>Julio del 2015</t>
         </is>
